--- a/data/raw/election/voters-age-sex-education/2023/Iğdır.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Iğdır.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:42:53-20456331851" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="33">
   <si>
     <t>Iğdır</t>
   </si>
@@ -113,6 +112,12 @@
   </si>
   <si>
     <t>Tuzluca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -646,7 +651,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -660,16 +665,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -994,10 +1008,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109:A110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,20 +1031,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1131,7 +1145,7 @@
         <v>21</v>
       </c>
       <c r="M6" s="5">
-        <v>1.9239999999999999</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1170,7 +1184,7 @@
         <v>6</v>
       </c>
       <c r="M7" s="5">
-        <v>1.2609999999999999</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1211,7 +1225,7 @@
         <v>10</v>
       </c>
       <c r="M8" s="5">
-        <v>1.321</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1249,7 +1263,7 @@
       <c r="L9" s="4">
         <v>3</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>678</v>
       </c>
     </row>
@@ -1290,7 +1304,7 @@
       <c r="L10" s="4">
         <v>6</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>853</v>
       </c>
     </row>
@@ -1329,7 +1343,7 @@
       <c r="L11" s="4">
         <v>10</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>620</v>
       </c>
     </row>
@@ -1370,7 +1384,7 @@
       <c r="L12" s="4">
         <v>12</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>664</v>
       </c>
     </row>
@@ -1409,7 +1423,7 @@
       <c r="L13" s="4">
         <v>13</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>603</v>
       </c>
     </row>
@@ -1450,7 +1464,7 @@
       <c r="L14" s="4">
         <v>4</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="6">
         <v>614</v>
       </c>
     </row>
@@ -1489,7 +1503,7 @@
       <c r="L15" s="4">
         <v>8</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="6">
         <v>541</v>
       </c>
     </row>
@@ -1530,7 +1544,7 @@
       <c r="L16" s="4">
         <v>4</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="6">
         <v>569</v>
       </c>
     </row>
@@ -1569,7 +1583,7 @@
       <c r="L17" s="4">
         <v>3</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="6">
         <v>465</v>
       </c>
     </row>
@@ -1610,7 +1624,7 @@
       <c r="L18" s="4">
         <v>10</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="6">
         <v>462</v>
       </c>
     </row>
@@ -1649,7 +1663,7 @@
       <c r="L19" s="4">
         <v>5</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="6">
         <v>426</v>
       </c>
     </row>
@@ -1690,7 +1704,7 @@
       <c r="L20" s="4">
         <v>1</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="6">
         <v>426</v>
       </c>
     </row>
@@ -1729,7 +1743,7 @@
       <c r="L21" s="4">
         <v>4</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="6">
         <v>392</v>
       </c>
     </row>
@@ -1770,7 +1784,7 @@
       <c r="L22" s="4">
         <v>2</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="6">
         <v>313</v>
       </c>
     </row>
@@ -1809,7 +1823,7 @@
       <c r="L23" s="4">
         <v>3</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="6">
         <v>338</v>
       </c>
     </row>
@@ -1850,7 +1864,7 @@
       <c r="L24" s="4">
         <v>4</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="6">
         <v>276</v>
       </c>
     </row>
@@ -1889,7 +1903,7 @@
       <c r="L25" s="4">
         <v>3</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="6">
         <v>315</v>
       </c>
     </row>
@@ -1930,7 +1944,7 @@
       <c r="L26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="6">
         <v>200</v>
       </c>
     </row>
@@ -1969,7 +1983,7 @@
       <c r="L27" s="4">
         <v>2</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="6">
         <v>237</v>
       </c>
     </row>
@@ -2010,7 +2024,7 @@
       <c r="L28" s="4">
         <v>2</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="6">
         <v>240</v>
       </c>
     </row>
@@ -2049,7 +2063,7 @@
       <c r="L29" s="4">
         <v>10</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="6">
         <v>336</v>
       </c>
     </row>
@@ -2057,39 +2071,39 @@
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="5">
-        <v>1.0169999999999999</v>
-      </c>
-      <c r="D30" s="5">
+        <v>1017</v>
+      </c>
+      <c r="D30" s="6">
         <v>708</v>
       </c>
       <c r="E30" s="5">
-        <v>2.79</v>
+        <v>2790</v>
       </c>
       <c r="F30" s="5">
-        <v>1.655</v>
+        <v>1655</v>
       </c>
       <c r="G30" s="5">
-        <v>2.448</v>
+        <v>2448</v>
       </c>
       <c r="H30" s="5">
-        <v>3.653</v>
+        <v>3653</v>
       </c>
       <c r="I30" s="5">
-        <v>1.5620000000000001</v>
-      </c>
-      <c r="J30" s="5">
+        <v>1562</v>
+      </c>
+      <c r="J30" s="6">
         <v>90</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="6">
         <v>5</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="6">
         <v>146</v>
       </c>
       <c r="M30" s="5">
-        <v>14.074</v>
+        <v>14074</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -2150,11 +2164,11 @@
       <c r="F32" s="4">
         <v>7</v>
       </c>
-      <c r="G32" s="4">
-        <v>3.5760000000000001</v>
-      </c>
-      <c r="H32" s="4">
-        <v>4.2830000000000004</v>
+      <c r="G32" s="9">
+        <v>3576</v>
+      </c>
+      <c r="H32" s="9">
+        <v>4283</v>
       </c>
       <c r="I32" s="4">
         <v>700</v>
@@ -2169,7 +2183,7 @@
         <v>119</v>
       </c>
       <c r="M32" s="5">
-        <v>8.9369999999999994</v>
+        <v>8937</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2189,14 +2203,14 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="G33" s="4">
-        <v>2.343</v>
-      </c>
-      <c r="H33" s="4">
-        <v>4.7450000000000001</v>
-      </c>
-      <c r="I33" s="4">
-        <v>1.373</v>
+      <c r="G33" s="9">
+        <v>2343</v>
+      </c>
+      <c r="H33" s="9">
+        <v>4745</v>
+      </c>
+      <c r="I33" s="9">
+        <v>1373</v>
       </c>
       <c r="J33" s="4">
         <v>12</v>
@@ -2208,7 +2222,7 @@
         <v>35</v>
       </c>
       <c r="M33" s="5">
-        <v>8.7940000000000005</v>
+        <v>8794</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2230,14 +2244,14 @@
       <c r="F34" s="4">
         <v>173</v>
       </c>
-      <c r="G34" s="4">
-        <v>1.9750000000000001</v>
-      </c>
-      <c r="H34" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="I34" s="4">
-        <v>1.9470000000000001</v>
+      <c r="G34" s="9">
+        <v>1975</v>
+      </c>
+      <c r="H34" s="9">
+        <v>1700</v>
+      </c>
+      <c r="I34" s="9">
+        <v>1947</v>
       </c>
       <c r="J34" s="4">
         <v>149</v>
@@ -2249,7 +2263,7 @@
         <v>36</v>
       </c>
       <c r="M34" s="5">
-        <v>6.3819999999999997</v>
+        <v>6382</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2269,14 +2283,14 @@
       <c r="F35" s="4">
         <v>204</v>
       </c>
-      <c r="G35" s="4">
-        <v>1.3660000000000001</v>
-      </c>
-      <c r="H35" s="4">
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="I35" s="4">
-        <v>2.806</v>
+      <c r="G35" s="9">
+        <v>1366</v>
+      </c>
+      <c r="H35" s="9">
+        <v>1205</v>
+      </c>
+      <c r="I35" s="9">
+        <v>2806</v>
       </c>
       <c r="J35" s="4">
         <v>215</v>
@@ -2288,7 +2302,7 @@
         <v>55</v>
       </c>
       <c r="M35" s="5">
-        <v>6.4889999999999999</v>
+        <v>6489</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2307,17 +2321,17 @@
       <c r="E36" s="4">
         <v>164</v>
       </c>
-      <c r="F36" s="4">
-        <v>1.036</v>
+      <c r="F36" s="9">
+        <v>1036</v>
       </c>
       <c r="G36" s="4">
         <v>692</v>
       </c>
-      <c r="H36" s="4">
-        <v>1.3660000000000001</v>
-      </c>
-      <c r="I36" s="4">
-        <v>1.8859999999999999</v>
+      <c r="H36" s="9">
+        <v>1366</v>
+      </c>
+      <c r="I36" s="9">
+        <v>1886</v>
       </c>
       <c r="J36" s="4">
         <v>333</v>
@@ -2329,7 +2343,7 @@
         <v>71</v>
       </c>
       <c r="M36" s="5">
-        <v>5.8230000000000004</v>
+        <v>5823</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2352,11 +2366,11 @@
       <c r="G37" s="4">
         <v>461</v>
       </c>
-      <c r="H37" s="4">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="I37" s="4">
-        <v>1.8620000000000001</v>
+      <c r="H37" s="9">
+        <v>1005</v>
+      </c>
+      <c r="I37" s="9">
+        <v>1862</v>
       </c>
       <c r="J37" s="4">
         <v>290</v>
@@ -2368,7 +2382,7 @@
         <v>82</v>
       </c>
       <c r="M37" s="5">
-        <v>5.4160000000000004</v>
+        <v>5416</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2393,11 +2407,11 @@
       <c r="G38" s="4">
         <v>390</v>
       </c>
-      <c r="H38" s="4">
-        <v>1.329</v>
-      </c>
-      <c r="I38" s="4">
-        <v>1.294</v>
+      <c r="H38" s="9">
+        <v>1329</v>
+      </c>
+      <c r="I38" s="9">
+        <v>1294</v>
       </c>
       <c r="J38" s="4">
         <v>279</v>
@@ -2409,7 +2423,7 @@
         <v>86</v>
       </c>
       <c r="M38" s="5">
-        <v>5.1459999999999999</v>
+        <v>5146</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2432,11 +2446,11 @@
       <c r="G39" s="4">
         <v>371</v>
       </c>
-      <c r="H39" s="4">
-        <v>1.105</v>
-      </c>
-      <c r="I39" s="4">
-        <v>1.008</v>
+      <c r="H39" s="9">
+        <v>1105</v>
+      </c>
+      <c r="I39" s="9">
+        <v>1008</v>
       </c>
       <c r="J39" s="4">
         <v>168</v>
@@ -2448,7 +2462,7 @@
         <v>69</v>
       </c>
       <c r="M39" s="5">
-        <v>4.766</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2473,8 +2487,8 @@
       <c r="G40" s="4">
         <v>682</v>
       </c>
-      <c r="H40" s="4">
-        <v>1.3069999999999999</v>
+      <c r="H40" s="9">
+        <v>1307</v>
       </c>
       <c r="I40" s="4">
         <v>809</v>
@@ -2489,7 +2503,7 @@
         <v>94</v>
       </c>
       <c r="M40" s="5">
-        <v>4.9509999999999996</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2512,8 +2526,8 @@
       <c r="G41" s="4">
         <v>561</v>
       </c>
-      <c r="H41" s="4">
-        <v>1.02</v>
+      <c r="H41" s="9">
+        <v>1020</v>
       </c>
       <c r="I41" s="4">
         <v>595</v>
@@ -2528,7 +2542,7 @@
         <v>89</v>
       </c>
       <c r="M41" s="5">
-        <v>4.63</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2553,8 +2567,8 @@
       <c r="G42" s="4">
         <v>540</v>
       </c>
-      <c r="H42" s="4">
-        <v>1.036</v>
+      <c r="H42" s="9">
+        <v>1036</v>
       </c>
       <c r="I42" s="4">
         <v>596</v>
@@ -2569,7 +2583,7 @@
         <v>73</v>
       </c>
       <c r="M42" s="5">
-        <v>3.9350000000000001</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2608,7 +2622,7 @@
         <v>83</v>
       </c>
       <c r="M43" s="5">
-        <v>3.6030000000000002</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2649,7 +2663,7 @@
         <v>66</v>
       </c>
       <c r="M44" s="5">
-        <v>3.39</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2688,7 +2702,7 @@
         <v>102</v>
       </c>
       <c r="M45" s="5">
-        <v>2.9929999999999999</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2729,7 +2743,7 @@
         <v>65</v>
       </c>
       <c r="M46" s="5">
-        <v>2.7429999999999999</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2768,7 +2782,7 @@
         <v>78</v>
       </c>
       <c r="M47" s="5">
-        <v>2.738</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2809,7 +2823,7 @@
         <v>46</v>
       </c>
       <c r="M48" s="5">
-        <v>2.2949999999999999</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2848,7 +2862,7 @@
         <v>65</v>
       </c>
       <c r="M49" s="5">
-        <v>2.2229999999999999</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2889,7 +2903,7 @@
         <v>59</v>
       </c>
       <c r="M50" s="5">
-        <v>1.835</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2928,7 +2942,7 @@
         <v>64</v>
       </c>
       <c r="M51" s="5">
-        <v>1.996</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2969,7 +2983,7 @@
         <v>35</v>
       </c>
       <c r="M52" s="5">
-        <v>1.1839999999999999</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3008,7 +3022,7 @@
         <v>63</v>
       </c>
       <c r="M53" s="5">
-        <v>1.4410000000000001</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3049,7 +3063,7 @@
         <v>45</v>
       </c>
       <c r="M54" s="5">
-        <v>1.39</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3057,8 +3071,8 @@
       <c r="B55" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="4">
-        <v>1.1539999999999999</v>
+      <c r="C55" s="9">
+        <v>1154</v>
       </c>
       <c r="D55" s="4">
         <v>350</v>
@@ -3088,46 +3102,46 @@
         <v>83</v>
       </c>
       <c r="M55" s="5">
-        <v>1.93</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="5">
-        <v>6.016</v>
+        <v>6016</v>
       </c>
       <c r="D56" s="5">
-        <v>6.0739999999999998</v>
+        <v>6074</v>
       </c>
       <c r="E56" s="5">
-        <v>12.507</v>
+        <v>12507</v>
       </c>
       <c r="F56" s="5">
-        <v>8.6</v>
+        <v>8600</v>
       </c>
       <c r="G56" s="5">
-        <v>16.314</v>
+        <v>16314</v>
       </c>
       <c r="H56" s="5">
-        <v>24.773</v>
+        <v>24773</v>
       </c>
       <c r="I56" s="5">
-        <v>16.716000000000001</v>
+        <v>16716</v>
       </c>
       <c r="J56" s="5">
-        <v>2.0089999999999999</v>
-      </c>
-      <c r="K56" s="5">
+        <v>2009</v>
+      </c>
+      <c r="K56" s="6">
         <v>358</v>
       </c>
       <c r="L56" s="5">
-        <v>1.663</v>
+        <v>1663</v>
       </c>
       <c r="M56" s="5">
-        <v>95.03</v>
+        <v>95030</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3206,7 +3220,7 @@
       <c r="L58" s="4">
         <v>25</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="6">
         <v>809</v>
       </c>
     </row>
@@ -3245,7 +3259,7 @@
       <c r="L59" s="4">
         <v>7</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="6">
         <v>812</v>
       </c>
     </row>
@@ -3286,7 +3300,7 @@
       <c r="L60" s="4">
         <v>8</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="6">
         <v>583</v>
       </c>
     </row>
@@ -3325,7 +3339,7 @@
       <c r="L61" s="4">
         <v>8</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="6">
         <v>478</v>
       </c>
     </row>
@@ -3366,7 +3380,7 @@
       <c r="L62" s="4">
         <v>12</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="6">
         <v>488</v>
       </c>
     </row>
@@ -3405,7 +3419,7 @@
       <c r="L63" s="4">
         <v>10</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="6">
         <v>341</v>
       </c>
     </row>
@@ -3446,7 +3460,7 @@
       <c r="L64" s="4">
         <v>13</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="6">
         <v>417</v>
       </c>
     </row>
@@ -3485,7 +3499,7 @@
       <c r="L65" s="4">
         <v>10</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="6">
         <v>369</v>
       </c>
     </row>
@@ -3526,7 +3540,7 @@
       <c r="L66" s="4">
         <v>23</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="6">
         <v>460</v>
       </c>
     </row>
@@ -3565,7 +3579,7 @@
       <c r="L67" s="4">
         <v>14</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="6">
         <v>362</v>
       </c>
     </row>
@@ -3606,7 +3620,7 @@
       <c r="L68" s="4">
         <v>15</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="6">
         <v>352</v>
       </c>
     </row>
@@ -3645,7 +3659,7 @@
       <c r="L69" s="4">
         <v>23</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="6">
         <v>316</v>
       </c>
     </row>
@@ -3686,7 +3700,7 @@
       <c r="L70" s="4">
         <v>11</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="6">
         <v>360</v>
       </c>
     </row>
@@ -3725,7 +3739,7 @@
       <c r="L71" s="4">
         <v>16</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="6">
         <v>329</v>
       </c>
     </row>
@@ -3766,7 +3780,7 @@
       <c r="L72" s="4">
         <v>12</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="6">
         <v>302</v>
       </c>
     </row>
@@ -3805,7 +3819,7 @@
       <c r="L73" s="4">
         <v>19</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="6">
         <v>304</v>
       </c>
     </row>
@@ -3846,7 +3860,7 @@
       <c r="L74" s="4">
         <v>10</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="6">
         <v>285</v>
       </c>
     </row>
@@ -3885,7 +3899,7 @@
       <c r="L75" s="4">
         <v>14</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="6">
         <v>308</v>
       </c>
     </row>
@@ -3926,7 +3940,7 @@
       <c r="L76" s="4">
         <v>3</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="6">
         <v>240</v>
       </c>
     </row>
@@ -3965,7 +3979,7 @@
       <c r="L77" s="4">
         <v>5</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="6">
         <v>250</v>
       </c>
     </row>
@@ -4006,7 +4020,7 @@
       <c r="L78" s="4">
         <v>3</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="6">
         <v>165</v>
       </c>
     </row>
@@ -4045,7 +4059,7 @@
       <c r="L79" s="4">
         <v>12</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="6">
         <v>200</v>
       </c>
     </row>
@@ -4086,7 +4100,7 @@
       <c r="L80" s="4">
         <v>5</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="6">
         <v>178</v>
       </c>
     </row>
@@ -4125,7 +4139,7 @@
       <c r="L81" s="4">
         <v>12</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="6">
         <v>257</v>
       </c>
     </row>
@@ -4133,39 +4147,39 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
+      <c r="B82" s="7"/>
+      <c r="C82" s="6">
         <v>815</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="6">
         <v>656</v>
       </c>
       <c r="E82" s="5">
-        <v>1.5469999999999999</v>
-      </c>
-      <c r="F82" s="5">
+        <v>1547</v>
+      </c>
+      <c r="F82" s="6">
         <v>904</v>
       </c>
       <c r="G82" s="5">
-        <v>1.88</v>
+        <v>1880</v>
       </c>
       <c r="H82" s="5">
-        <v>2.0489999999999999</v>
-      </c>
-      <c r="I82" s="5">
+        <v>2049</v>
+      </c>
+      <c r="I82" s="6">
         <v>772</v>
       </c>
-      <c r="J82" s="5">
+      <c r="J82" s="6">
         <v>49</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="6">
         <v>3</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="6">
         <v>290</v>
       </c>
       <c r="M82" s="5">
-        <v>8.9649999999999999</v>
+        <v>8965</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4245,7 +4259,7 @@
         <v>24</v>
       </c>
       <c r="M84" s="5">
-        <v>1.4970000000000001</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4284,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="M85" s="5">
-        <v>1.3240000000000001</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4325,7 +4339,7 @@
         <v>4</v>
       </c>
       <c r="M86" s="5">
-        <v>1.024</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4363,7 +4377,7 @@
       <c r="L87" s="4">
         <v>2</v>
       </c>
-      <c r="M87" s="5">
+      <c r="M87" s="6">
         <v>803</v>
       </c>
     </row>
@@ -4404,7 +4418,7 @@
       <c r="L88" s="4">
         <v>14</v>
       </c>
-      <c r="M88" s="5">
+      <c r="M88" s="6">
         <v>800</v>
       </c>
     </row>
@@ -4443,7 +4457,7 @@
       <c r="L89" s="4">
         <v>8</v>
       </c>
-      <c r="M89" s="5">
+      <c r="M89" s="6">
         <v>630</v>
       </c>
     </row>
@@ -4484,7 +4498,7 @@
       <c r="L90" s="4">
         <v>17</v>
       </c>
-      <c r="M90" s="5">
+      <c r="M90" s="6">
         <v>716</v>
       </c>
     </row>
@@ -4523,7 +4537,7 @@
       <c r="L91" s="4">
         <v>15</v>
       </c>
-      <c r="M91" s="5">
+      <c r="M91" s="6">
         <v>599</v>
       </c>
     </row>
@@ -4564,7 +4578,7 @@
       <c r="L92" s="4">
         <v>17</v>
       </c>
-      <c r="M92" s="5">
+      <c r="M92" s="6">
         <v>792</v>
       </c>
     </row>
@@ -4603,7 +4617,7 @@
       <c r="L93" s="4">
         <v>25</v>
       </c>
-      <c r="M93" s="5">
+      <c r="M93" s="6">
         <v>696</v>
       </c>
     </row>
@@ -4644,7 +4658,7 @@
       <c r="L94" s="4">
         <v>16</v>
       </c>
-      <c r="M94" s="5">
+      <c r="M94" s="6">
         <v>611</v>
       </c>
     </row>
@@ -4683,7 +4697,7 @@
       <c r="L95" s="4">
         <v>22</v>
       </c>
-      <c r="M95" s="5">
+      <c r="M95" s="6">
         <v>545</v>
       </c>
     </row>
@@ -4724,7 +4738,7 @@
       <c r="L96" s="4">
         <v>10</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M96" s="6">
         <v>540</v>
       </c>
     </row>
@@ -4763,7 +4777,7 @@
       <c r="L97" s="4">
         <v>12</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="6">
         <v>481</v>
       </c>
     </row>
@@ -4804,7 +4818,7 @@
       <c r="L98" s="4">
         <v>4</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M98" s="6">
         <v>494</v>
       </c>
     </row>
@@ -4843,7 +4857,7 @@
       <c r="L99" s="4">
         <v>11</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="6">
         <v>460</v>
       </c>
     </row>
@@ -4884,7 +4898,7 @@
       <c r="L100" s="4">
         <v>8</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="6">
         <v>537</v>
       </c>
     </row>
@@ -4923,7 +4937,7 @@
       <c r="L101" s="4">
         <v>13</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="6">
         <v>482</v>
       </c>
     </row>
@@ -4964,7 +4978,7 @@
       <c r="L102" s="4">
         <v>8</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="6">
         <v>427</v>
       </c>
     </row>
@@ -5003,7 +5017,7 @@
       <c r="L103" s="4">
         <v>12</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="6">
         <v>544</v>
       </c>
     </row>
@@ -5044,7 +5058,7 @@
       <c r="L104" s="4">
         <v>10</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="6">
         <v>374</v>
       </c>
     </row>
@@ -5083,7 +5097,7 @@
       <c r="L105" s="4">
         <v>18</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="6">
         <v>408</v>
       </c>
     </row>
@@ -5124,7 +5138,7 @@
       <c r="L106" s="4">
         <v>15</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="6">
         <v>453</v>
       </c>
     </row>
@@ -5163,7 +5177,7 @@
       <c r="L107" s="4">
         <v>23</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="6">
         <v>506</v>
       </c>
     </row>
@@ -5171,39 +5185,49 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
+      <c r="B108" s="7"/>
       <c r="C108" s="5">
-        <v>1.484</v>
+        <v>1484</v>
       </c>
       <c r="D108" s="5">
-        <v>1.3180000000000001</v>
+        <v>1318</v>
       </c>
       <c r="E108" s="5">
-        <v>3.3109999999999999</v>
+        <v>3311</v>
       </c>
       <c r="F108" s="5">
-        <v>1.7410000000000001</v>
+        <v>1741</v>
       </c>
       <c r="G108" s="5">
-        <v>3.214</v>
+        <v>3214</v>
       </c>
       <c r="H108" s="5">
-        <v>2.8340000000000001</v>
+        <v>2834</v>
       </c>
       <c r="I108" s="5">
-        <v>1.381</v>
-      </c>
-      <c r="J108" s="5">
+        <v>1381</v>
+      </c>
+      <c r="J108" s="6">
         <v>143</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="6">
         <v>8</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="6">
         <v>309</v>
       </c>
       <c r="M108" s="5">
-        <v>15.743</v>
+        <v>15743</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
